--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmazza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6689C453-2BF6-4F2B-93D2-D845CCB247CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F936B550-0978-4D01-A927-DA8AA29F781C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5429,7 +5429,7 @@
   <dimension ref="A1:I1121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
